--- a/biology/Médecine/Lymphocyte_Th_folliculaire/Lymphocyte_Th_folliculaire.xlsx
+++ b/biology/Médecine/Lymphocyte_Th_folliculaire/Lymphocyte_Th_folliculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lymphocyte T auxiliaire folliculaire  ou cellule Th folliculaire (Thf) est le type de cellule clé requis pour la formation de centre germinatif où se forme les cellules B à mémoire sérologique à longue durée de vie [1],[2],[3]. Semblable à d’autres lignées de lymphocytes T auxiliaire  CD4+ , la génération de cellules Th folliculaire nécessite l’activation de voies de signalisation en aval des cytokines et des molécules de surface cellulaire, ainsi que l’activation ultérieure de facteurs de transcription spécifiques.
-Les interactions apparentées entre les lymphocytes B spécifiques de l'antigène, les cellules T auxiliaires CD4+ et les cellules dendritiques folliculaires en réponse à l'antigène étranger conduisent à la formation de centres germinaux . Les centres germinaux sont des structures spécialisées dans les tissus lymphoïdes secondaires où se produisent une commutation isotypique des gènes de la région variable des immunoglobulines et une sélection de cellules B de haute affinité, suivies de la différenciation des cellules à mémoire à longue durée de vie ou des plasmocytes. Ce processus garantit le développement d'une immunité humorale à long terme après une infection ou une vaccination avec l'antigène dépendant des lymphocytes T et constitue une caractéristique unique du système immunitaire des mammifères [4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lymphocyte T auxiliaire folliculaire  ou cellule Th folliculaire (Thf) est le type de cellule clé requis pour la formation de centre germinatif où se forme les cellules B à mémoire sérologique à longue durée de vie . Semblable à d’autres lignées de lymphocytes T auxiliaire  CD4+ , la génération de cellules Th folliculaire nécessite l’activation de voies de signalisation en aval des cytokines et des molécules de surface cellulaire, ainsi que l’activation ultérieure de facteurs de transcription spécifiques.
+Les interactions apparentées entre les lymphocytes B spécifiques de l'antigène, les cellules T auxiliaires CD4+ et les cellules dendritiques folliculaires en réponse à l'antigène étranger conduisent à la formation de centres germinaux . Les centres germinaux sont des structures spécialisées dans les tissus lymphoïdes secondaires où se produisent une commutation isotypique des gènes de la région variable des immunoglobulines et une sélection de cellules B de haute affinité, suivies de la différenciation des cellules à mémoire à longue durée de vie ou des plasmocytes. Ce processus garantit le développement d'une immunité humorale à long terme après une infection ou une vaccination avec l'antigène dépendant des lymphocytes T et constitue une caractéristique unique du système immunitaire des mammifères ,.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Caractéristiques du lymphocyte T auxiliaire folliculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cellules Th folliculaires expriment une combinaison unique de molécules effectrices essentielles à leur développement et à leur fonction, notamment des niveaux élevés de récepteurs de surface CD278, le ligand CD40 , CD134 , PD-1, la B-andT-lymphocyte attenuator et CD84, l'interleukine 21, la protéine adaptatrice cytoplasmique associée au SLAM et les facteurs de transcription la BCL6 et la CMAF [6],[7],[8],[9].
-Ces molécules jouent un rôle essentiel dans la promotion de l’activation, de la différenciation et de la survie des lymphocytes B et/ou des lymphocytes T CD4+. Par exemple, le ligand du CD40 sauve les cellules B de l'apoptose et favorise leur prolifération [10], et l'interleukine 21 améliore la différenciation des cellules B humaines stimulées par le ligand de CD40, induisant la sécrétion de tous les isotypes d'immunoglobulines [11],[12],[13]. L'engagement du CD278 sur les lymphocytes T CD4+ induit la production de cytokines, telles que l'interleukine  10 et l'interleukine  21 , et la protéine adaptatrice cytoplasmique associée au SLAM est nécessaire pour que les lymphocytes T CD4+ forment des contacts stables avec les lymphocytes B apparentés afin de favoriser leur activation et leur différenciation [14],[15]  L'importance de ces molécules dans la fonction de Th folliculaire est soulignée par la découverte de que la suppression ciblée ou de mutations avec perte de fonction de ces protéines  chez l'homme  compromettent gravement la génération de centre germinatifs  robustes et la mémoire sérologique ultérieure à long terme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules Th folliculaires expriment une combinaison unique de molécules effectrices essentielles à leur développement et à leur fonction, notamment des niveaux élevés de récepteurs de surface CD278, le ligand CD40 , CD134 , PD-1, la B-andT-lymphocyte attenuator et CD84, l'interleukine 21, la protéine adaptatrice cytoplasmique associée au SLAM et les facteurs de transcription la BCL6 et la CMAF .
+Ces molécules jouent un rôle essentiel dans la promotion de l’activation, de la différenciation et de la survie des lymphocytes B et/ou des lymphocytes T CD4+. Par exemple, le ligand du CD40 sauve les cellules B de l'apoptose et favorise leur prolifération , et l'interleukine 21 améliore la différenciation des cellules B humaines stimulées par le ligand de CD40, induisant la sécrétion de tous les isotypes d'immunoglobulines . L'engagement du CD278 sur les lymphocytes T CD4+ induit la production de cytokines, telles que l'interleukine  10 et l'interleukine  21 , et la protéine adaptatrice cytoplasmique associée au SLAM est nécessaire pour que les lymphocytes T CD4+ forment des contacts stables avec les lymphocytes B apparentés afin de favoriser leur activation et leur différenciation ,  L'importance de ces molécules dans la fonction de Th folliculaire est soulignée par la découverte de que la suppression ciblée ou de mutations avec perte de fonction de ces protéines  chez l'homme  compromettent gravement la génération de centre germinatifs  robustes et la mémoire sérologique ultérieure à long terme.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
